--- a/ui-testsuite/src/main/resources/TestData/ATR_imported_SuccessStatus.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_imported_SuccessStatus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuy Quynh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="260">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -585,13 +585,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>Q2</t>
-  </si>
-  <si>
     <t>H1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
   </si>
   <si>
     <t>2016-H1</t>
@@ -1277,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="EP1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1952,52 +1946,52 @@
         <v>2100000011</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>165</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AA2" s="12">
         <v>41730</v>
@@ -2018,31 +2012,31 @@
         <v>42826</v>
       </c>
       <c r="AG2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM2" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AM2" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>167</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>46</v>
@@ -2054,34 +2048,34 @@
         <v>170</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AZ2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BA2" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="BB2" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BO2" s="1" t="s">
         <v>171</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>172</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BS2" s="12">
         <v>42461</v>
@@ -2093,25 +2087,25 @@
         <v>4</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="BX2" s="1" t="s">
         <v>173</v>
       </c>
       <c r="BY2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CA2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BZ2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="CB2" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="CC2" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="CD2" s="1" t="s">
         <v>176</v>
@@ -2129,13 +2123,13 @@
         <v>178</v>
       </c>
       <c r="CI2" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="CJ2" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="CL2" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CP2" s="3">
         <v>0.64980000000000004</v>
@@ -2153,13 +2147,13 @@
         <v>1856161.6547945209</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="CZ2" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="DC2" s="2" t="s">
         <v>179</v>
@@ -2183,16 +2177,16 @@
         <v>170</v>
       </c>
       <c r="DL2" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="DM2" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="DN2" s="12">
         <v>42461</v>
       </c>
       <c r="DO2" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="DP2" s="1" t="s">
         <v>182</v>
@@ -2210,7 +2204,7 @@
         <v>182</v>
       </c>
       <c r="DW2" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="DZ2" s="1">
         <v>0</v>
@@ -2237,10 +2231,10 @@
         <v>42490</v>
       </c>
       <c r="EI2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="EJ2" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="EJ2" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="EK2" s="1">
         <v>0</v>
@@ -2264,19 +2258,19 @@
         <v>184</v>
       </c>
       <c r="EX2" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="EY2" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="EZ2" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="FD2" s="1" t="s">
         <v>182</v>
       </c>
       <c r="FE2" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:162" x14ac:dyDescent="0.25">
@@ -2284,67 +2278,67 @@
         <v>185</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F3" s="2">
         <v>2100000012</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="AA3" s="12">
         <v>42209</v>
@@ -2365,28 +2359,28 @@
         <v>43305</v>
       </c>
       <c r="AG3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM3" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AN3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AK3" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="AM3" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>168</v>
@@ -2398,46 +2392,46 @@
         <v>169</v>
       </c>
       <c r="AX3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BC3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="BO3" s="1" t="s">
         <v>171</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>172</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BS3" s="12">
         <v>42575</v>
@@ -2449,7 +2443,7 @@
         <v>7</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BX3" s="1" t="s">
         <v>173</v>
@@ -2458,22 +2452,22 @@
         <v>174</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>175</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="CC3" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="CF3" s="1" t="s">
         <v>178</v>
@@ -2485,13 +2479,13 @@
         <v>178</v>
       </c>
       <c r="CI3" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="CJ3" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CP3" s="3">
         <v>1.4065000000000001</v>
@@ -2509,16 +2503,16 @@
         <v>1477726.8</v>
       </c>
       <c r="CW3" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="CY3" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="CZ3" s="1" t="s">
         <v>181</v>
       </c>
       <c r="DA3" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="DC3" s="2" t="s">
         <v>179</v>
@@ -2539,10 +2533,10 @@
         <v>1477726.8</v>
       </c>
       <c r="DK3" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="DM3" s="22" t="s">
         <v>180</v>
@@ -2569,7 +2563,7 @@
         <v>182</v>
       </c>
       <c r="DW3" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="DZ3" s="1">
         <v>0</v>
@@ -2596,7 +2590,7 @@
         <v>42582</v>
       </c>
       <c r="EI3" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="EJ3" s="1" t="s">
         <v>183</v>
@@ -2623,19 +2617,19 @@
         <v>184</v>
       </c>
       <c r="EX3" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="EY3" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="EZ3" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="FD3" s="1" t="s">
         <v>182</v>
       </c>
       <c r="FE3" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/ui-testsuite/src/main/resources/TestData/ATR_imported_SuccessStatus.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_imported_SuccessStatus.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="261">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -802,6 +802,9 @@
   </si>
   <si>
     <t>03/01: details now ready to be shared with BT (not complete) 02/23: delivery, pricing and margin specfication in last stages 02/02: ongoing exersise in preparation for FY17 renewal - risk associated with unclear service descpription and price points + BT have a OPEX reduction target of 20% Anniversary contract</t>
+  </si>
+  <si>
+    <t>EOT</t>
   </si>
 </sst>
 </file>
@@ -1271,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AQ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1578,7 +1581,7 @@
         <v>45</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>46</v>
+        <v>260</v>
       </c>
       <c r="AV1" s="6" t="s">
         <v>47</v>
